--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Chad-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Chad-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4370383333333334</v>
+        <v>0.394592</v>
       </c>
       <c r="H2">
-        <v>1.311115</v>
+        <v>1.183776</v>
       </c>
       <c r="I2">
-        <v>0.04569839301109439</v>
+        <v>0.05019988976834007</v>
       </c>
       <c r="J2">
-        <v>0.0456983930110944</v>
+        <v>0.05019988976834008</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>67.09806585366444</v>
+        <v>57.49234823950934</v>
       </c>
       <c r="R2">
-        <v>603.88259268298</v>
+        <v>517.431134155584</v>
       </c>
       <c r="S2">
-        <v>0.01449647607735998</v>
+        <v>0.01438697591382378</v>
       </c>
       <c r="T2">
-        <v>0.01449647607735998</v>
+        <v>0.01438697591382379</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4370383333333334</v>
+        <v>0.394592</v>
       </c>
       <c r="H3">
-        <v>1.311115</v>
+        <v>1.183776</v>
       </c>
       <c r="I3">
-        <v>0.04569839301109439</v>
+        <v>0.05019988976834007</v>
       </c>
       <c r="J3">
-        <v>0.0456983930110944</v>
+        <v>0.05019988976834008</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>73.77194072060223</v>
+        <v>66.60701227464534</v>
       </c>
       <c r="R3">
-        <v>663.9474664854201</v>
+        <v>599.463110471808</v>
       </c>
       <c r="S3">
-        <v>0.01593836067002255</v>
+        <v>0.01666784381975465</v>
       </c>
       <c r="T3">
-        <v>0.01593836067002255</v>
+        <v>0.01666784381975465</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4370383333333334</v>
+        <v>0.394592</v>
       </c>
       <c r="H4">
-        <v>1.311115</v>
+        <v>1.183776</v>
       </c>
       <c r="I4">
-        <v>0.04569839301109439</v>
+        <v>0.05019988976834007</v>
       </c>
       <c r="J4">
-        <v>0.0456983930110944</v>
+        <v>0.05019988976834008</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>40.89047467013167</v>
+        <v>50.55755562222934</v>
       </c>
       <c r="R4">
-        <v>368.014272031185</v>
+        <v>455.018000600064</v>
       </c>
       <c r="S4">
-        <v>0.008834349847583347</v>
+        <v>0.0126516024700999</v>
       </c>
       <c r="T4">
-        <v>0.008834349847583347</v>
+        <v>0.0126516024700999</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4370383333333334</v>
+        <v>0.394592</v>
       </c>
       <c r="H5">
-        <v>1.311115</v>
+        <v>1.183776</v>
       </c>
       <c r="I5">
-        <v>0.04569839301109439</v>
+        <v>0.05019988976834007</v>
       </c>
       <c r="J5">
-        <v>0.0456983930110944</v>
+        <v>0.05019988976834008</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>29.75808142572778</v>
+        <v>25.948795684768</v>
       </c>
       <c r="R5">
-        <v>267.8227328315501</v>
+        <v>233.539161162912</v>
       </c>
       <c r="S5">
-        <v>0.006429206416128516</v>
+        <v>0.006493467564661746</v>
       </c>
       <c r="T5">
-        <v>0.006429206416128517</v>
+        <v>0.006493467564661747</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>18.979659</v>
       </c>
       <c r="I6">
-        <v>0.6615284823974669</v>
+        <v>0.8048623976501327</v>
       </c>
       <c r="J6">
-        <v>0.6615284823974669</v>
+        <v>0.8048623976501328</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>971.3094651972518</v>
+        <v>921.783483273134</v>
       </c>
       <c r="R6">
-        <v>8741.785186775267</v>
+        <v>8296.051349458206</v>
       </c>
       <c r="S6">
-        <v>0.2098505261933163</v>
+        <v>0.2306685529066215</v>
       </c>
       <c r="T6">
-        <v>0.2098505261933163</v>
+        <v>0.2306685529066216</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>18.979659</v>
       </c>
       <c r="I7">
-        <v>0.6615284823974669</v>
+        <v>0.8048623976501327</v>
       </c>
       <c r="J7">
-        <v>0.6615284823974669</v>
+        <v>0.8048623976501328</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
         <v>1067.920265304908</v>
@@ -883,10 +883,10 @@
         <v>9611.282387744172</v>
       </c>
       <c r="S7">
-        <v>0.2307232016535846</v>
+        <v>0.2672380517633409</v>
       </c>
       <c r="T7">
-        <v>0.2307232016535846</v>
+        <v>0.2672380517633409</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>18.979659</v>
       </c>
       <c r="I8">
-        <v>0.6615284823974669</v>
+        <v>0.8048623976501327</v>
       </c>
       <c r="J8">
-        <v>0.6615284823974669</v>
+        <v>0.8048623976501328</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>591.929209556169</v>
+        <v>810.596908184864</v>
       </c>
       <c r="R8">
-        <v>5327.362886005521</v>
+        <v>7295.372173663775</v>
       </c>
       <c r="S8">
-        <v>0.1278857671476826</v>
+        <v>0.2028450489670797</v>
       </c>
       <c r="T8">
-        <v>0.1278857671476826</v>
+        <v>0.2028450489670797</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>18.979659</v>
       </c>
       <c r="I9">
-        <v>0.6615284823974669</v>
+        <v>0.8048623976501327</v>
       </c>
       <c r="J9">
-        <v>0.6615284823974669</v>
+        <v>0.8048623976501328</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>430.77703935547</v>
+        <v>416.0409516306869</v>
       </c>
       <c r="R9">
-        <v>3876.99335419923</v>
+        <v>3744.368564676182</v>
       </c>
       <c r="S9">
-        <v>0.09306898740288329</v>
+        <v>0.1041107440130906</v>
       </c>
       <c r="T9">
-        <v>0.09306898740288329</v>
+        <v>0.1041107440130907</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.972124333333333</v>
+        <v>0.078976</v>
       </c>
       <c r="H10">
-        <v>5.916373</v>
+        <v>0.236928</v>
       </c>
       <c r="I10">
-        <v>0.2062128330117706</v>
+        <v>0.01004730581041791</v>
       </c>
       <c r="J10">
-        <v>0.2062128330117706</v>
+        <v>0.01004730581041791</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>302.7783109558217</v>
+        <v>11.50686201079467</v>
       </c>
       <c r="R10">
-        <v>2725.004798602396</v>
+        <v>103.561758097152</v>
       </c>
       <c r="S10">
-        <v>0.0654149785939742</v>
+        <v>0.002879495300893447</v>
       </c>
       <c r="T10">
-        <v>0.0654149785939742</v>
+        <v>0.002879495300893447</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>1.972124333333333</v>
+        <v>0.078976</v>
       </c>
       <c r="H11">
-        <v>5.916373</v>
+        <v>0.236928</v>
       </c>
       <c r="I11">
-        <v>0.2062128330117706</v>
+        <v>0.01004730581041791</v>
       </c>
       <c r="J11">
-        <v>0.2062128330117706</v>
+        <v>0.01004730581041791</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>332.8940010883649</v>
+        <v>13.33112531780267</v>
       </c>
       <c r="R11">
-        <v>2996.046009795285</v>
+        <v>119.980127860224</v>
       </c>
       <c r="S11">
-        <v>0.07192144604583378</v>
+        <v>0.003336001828493591</v>
       </c>
       <c r="T11">
-        <v>0.07192144604583378</v>
+        <v>0.003336001828493591</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.972124333333333</v>
+        <v>0.078976</v>
       </c>
       <c r="H12">
-        <v>5.916373</v>
+        <v>0.236928</v>
       </c>
       <c r="I12">
-        <v>0.2062128330117706</v>
+        <v>0.01004730581041791</v>
       </c>
       <c r="J12">
-        <v>0.2062128330117706</v>
+        <v>0.01004730581041791</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>184.5172241150097</v>
+        <v>10.11889119095467</v>
       </c>
       <c r="R12">
-        <v>1660.655017035087</v>
+        <v>91.070020718592</v>
       </c>
       <c r="S12">
-        <v>0.03986477838389175</v>
+        <v>0.002532167293504707</v>
       </c>
       <c r="T12">
-        <v>0.03986477838389175</v>
+        <v>0.002532167293504707</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.972124333333333</v>
+        <v>0.078976</v>
       </c>
       <c r="H13">
-        <v>5.916373</v>
+        <v>0.236928</v>
       </c>
       <c r="I13">
-        <v>0.2062128330117706</v>
+        <v>0.01004730581041791</v>
       </c>
       <c r="J13">
-        <v>0.2062128330117706</v>
+        <v>0.01004730581041791</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N13">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q13">
-        <v>134.2825835102011</v>
+        <v>5.193546975104</v>
       </c>
       <c r="R13">
-        <v>1208.54325159181</v>
+        <v>46.741922775936</v>
       </c>
       <c r="S13">
-        <v>0.02901162998807085</v>
+        <v>0.001299641387526169</v>
       </c>
       <c r="T13">
-        <v>0.02901162998807085</v>
+        <v>0.001299641387526169</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8278226666666666</v>
+        <v>1.060294666666667</v>
       </c>
       <c r="H14">
-        <v>2.483468</v>
+        <v>3.180884</v>
       </c>
       <c r="I14">
-        <v>0.08656029157966812</v>
+        <v>0.1348904067711093</v>
       </c>
       <c r="J14">
-        <v>0.08656029157966813</v>
+        <v>0.1348904067711093</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N14">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q14">
-        <v>127.0948005395929</v>
+        <v>154.4857224994285</v>
       </c>
       <c r="R14">
-        <v>1143.853204856336</v>
+        <v>1390.371502494856</v>
       </c>
       <c r="S14">
-        <v>0.02745871601719836</v>
+        <v>0.03865875088924548</v>
       </c>
       <c r="T14">
-        <v>0.02745871601719836</v>
+        <v>0.03865875088924548</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8278226666666666</v>
+        <v>1.060294666666667</v>
       </c>
       <c r="H15">
-        <v>2.483468</v>
+        <v>3.180884</v>
       </c>
       <c r="I15">
-        <v>0.08656029157966812</v>
+        <v>0.1348904067711093</v>
       </c>
       <c r="J15">
-        <v>0.08656029157966813</v>
+        <v>0.1348904067711093</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P15">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q15">
-        <v>139.7362199940605</v>
+        <v>178.9774244723858</v>
       </c>
       <c r="R15">
-        <v>1257.625979946544</v>
+        <v>1610.796820251472</v>
       </c>
       <c r="S15">
-        <v>0.03018988318832411</v>
+        <v>0.04478759302499497</v>
       </c>
       <c r="T15">
-        <v>0.03018988318832411</v>
+        <v>0.04478759302499497</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8278226666666666</v>
+        <v>1.060294666666667</v>
       </c>
       <c r="H16">
-        <v>2.483468</v>
+        <v>3.180884</v>
       </c>
       <c r="I16">
-        <v>0.08656029157966812</v>
+        <v>0.1348904067711093</v>
       </c>
       <c r="J16">
-        <v>0.08656029157966813</v>
+        <v>0.1348904067711093</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N16">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q16">
-        <v>77.45330146332132</v>
+        <v>135.8514784535751</v>
       </c>
       <c r="R16">
-        <v>697.079713169892</v>
+        <v>1222.663306082176</v>
       </c>
       <c r="S16">
-        <v>0.0167337153089379</v>
+        <v>0.03399568826492617</v>
       </c>
       <c r="T16">
-        <v>0.0167337153089379</v>
+        <v>0.03399568826492617</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8278226666666666</v>
+        <v>1.060294666666667</v>
       </c>
       <c r="H17">
-        <v>2.483468</v>
+        <v>3.180884</v>
       </c>
       <c r="I17">
-        <v>0.08656029157966812</v>
+        <v>0.1348904067711093</v>
       </c>
       <c r="J17">
-        <v>0.08656029157966813</v>
+        <v>0.1348904067711093</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N17">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q17">
-        <v>56.36671303599556</v>
+        <v>69.72612133794534</v>
       </c>
       <c r="R17">
-        <v>507.3004173239601</v>
+        <v>627.5350920415081</v>
       </c>
       <c r="S17">
-        <v>0.01217797706520775</v>
+        <v>0.01744837459194266</v>
       </c>
       <c r="T17">
-        <v>0.01217797706520775</v>
+        <v>0.01744837459194266</v>
       </c>
     </row>
   </sheetData>
